--- a/instance_info_fe.xlsx
+++ b/instance_info_fe.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>i-0cd9b79dfb57f56db</t>
+          <t>i-0c9f7fdb0b9b90fd9</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -464,46 +464,24 @@
           <t>t2.micro</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>34.238.53.135</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>172.31.24.123</t>
+          <t>172.31.90.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-02-22 06:47:40+00:00</t>
+          <t>2024-02-29 11:06:40+00:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>launch-wizard-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>i-07b28c8109984ddd8</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>t2.micro</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>172.31.20.1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2024-02-22 07:11:13+00:00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>launch-wizard-1</t>
+          <t>suri-tm</t>
         </is>
       </c>
     </row>
